--- a/测试单-电子书_daisy_170108.xlsx
+++ b/测试单-电子书_daisy_170108.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="180" windowWidth="19200" windowHeight="11550" tabRatio="784" activeTab="1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="301">
   <si>
     <t>编号</t>
   </si>
@@ -1961,6 +1961,14 @@
   </si>
   <si>
     <t>复检已改daisy记录。新增编号82~89。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>j</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3203,62 +3211,7 @@
     <cellStyle name="常规 3 9" xfId="37"/>
     <cellStyle name="常规 6" xfId="6"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -3958,10 +3911,10 @@
   <dimension ref="A1:S91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H82" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomRight" activeCell="P91" sqref="P91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7487,6 +7440,15 @@
         <v>295</v>
       </c>
       <c r="H90" s="154"/>
+      <c r="L90" s="128" t="s">
+        <v>299</v>
+      </c>
+      <c r="O90" s="150">
+        <v>42749</v>
+      </c>
+      <c r="P90" s="128" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="91" spans="1:16">
       <c r="A91" s="106">
@@ -7512,6 +7474,15 @@
       </c>
       <c r="H91" s="169" t="s">
         <v>199</v>
+      </c>
+      <c r="L91" s="128" t="s">
+        <v>299</v>
+      </c>
+      <c r="O91" s="150">
+        <v>42749</v>
+      </c>
+      <c r="P91" s="128" t="s">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -7530,12 +7501,12 @@
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I1:I73 I75:I1048576">
-    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="否">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="否">
       <formula>NOT(ISERROR(SEARCH("否",L1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/测试单-电子书_daisy_170108.xlsx
+++ b/测试单-电子书_daisy_170108.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="303">
   <si>
     <t>编号</t>
   </si>
@@ -1969,6 +1969,14 @@
   </si>
   <si>
     <t>j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加了文加件判断方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3911,10 +3919,10 @@
   <dimension ref="A1:S91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H82" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H73" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P91" sqref="P91"/>
+      <selection pane="bottomRight" activeCell="R76" sqref="R76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6981,10 +6989,16 @@
       <c r="G76" s="130" t="s">
         <v>288</v>
       </c>
-      <c r="L76" s="132"/>
+      <c r="L76" s="132" t="s">
+        <v>301</v>
+      </c>
       <c r="M76" s="132"/>
-      <c r="N76" s="132"/>
-      <c r="O76" s="132"/>
+      <c r="N76" s="132" t="s">
+        <v>302</v>
+      </c>
+      <c r="O76" s="151">
+        <v>42749</v>
+      </c>
       <c r="P76" s="128" t="s">
         <v>145</v>
       </c>

--- a/测试单-电子书_daisy_170108.xlsx
+++ b/测试单-电子书_daisy_170108.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="303">
   <si>
     <t>编号</t>
   </si>
@@ -3919,10 +3919,10 @@
   <dimension ref="A1:S91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H73" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="K16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R76" sqref="R76"/>
+      <selection pane="bottomRight" activeCell="N71" sqref="N71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4389,7 +4389,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="12" spans="1:19" s="132" customFormat="1" ht="40.5">
+    <row r="12" spans="1:19" s="132" customFormat="1" ht="40.5" hidden="1">
       <c r="A12" s="106">
         <v>10</v>
       </c>
@@ -4507,7 +4507,7 @@
       </c>
       <c r="S14" s="99"/>
     </row>
-    <row r="15" spans="1:19" s="132" customFormat="1" ht="40.5">
+    <row r="15" spans="1:19" s="132" customFormat="1" ht="40.5" hidden="1">
       <c r="A15" s="106">
         <v>13</v>
       </c>
@@ -5591,7 +5591,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="42" spans="1:19" s="163" customFormat="1" ht="94.5">
+    <row r="42" spans="1:19" s="163" customFormat="1" ht="94.5" hidden="1">
       <c r="A42" s="106">
         <v>40</v>
       </c>
@@ -5974,7 +5974,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="94.5">
+    <row r="51" spans="1:16" ht="94.5" hidden="1">
       <c r="A51" s="106">
         <v>49</v>
       </c>
@@ -6014,7 +6014,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="27">
+    <row r="52" spans="1:16" ht="27" hidden="1">
       <c r="A52" s="106">
         <v>50</v>
       </c>
@@ -6179,7 +6179,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="54">
+    <row r="56" spans="1:16" ht="54" hidden="1">
       <c r="A56" s="106">
         <v>54</v>
       </c>
@@ -6603,9 +6603,6 @@
       <c r="H66" s="154" t="s">
         <v>41</v>
       </c>
-      <c r="I66" s="129" t="s">
-        <v>208</v>
-      </c>
       <c r="L66" s="132"/>
       <c r="M66" s="132"/>
       <c r="N66" s="132"/>
@@ -6804,16 +6801,13 @@
       <c r="H71" s="154" t="s">
         <v>41</v>
       </c>
-      <c r="I71" s="129" t="s">
-        <v>208</v>
-      </c>
       <c r="L71" s="128" t="s">
         <v>82</v>
       </c>
       <c r="M71" s="132"/>
       <c r="N71" s="132"/>
       <c r="O71" s="150">
-        <v>42729</v>
+        <v>42384</v>
       </c>
       <c r="P71" s="128" t="s">
         <v>144</v>
@@ -6857,7 +6851,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="40.5">
+    <row r="73" spans="1:16" ht="40.5" hidden="1">
       <c r="A73" s="106">
         <v>71</v>
       </c>
@@ -7197,7 +7191,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="27">
+    <row r="82" spans="1:16" ht="27" hidden="1">
       <c r="A82" s="106">
         <v>80</v>
       </c>
@@ -7503,14 +7497,15 @@
   <autoFilter ref="A2:P91">
     <filterColumn colId="8">
       <filters blank="1">
-        <filter val="待测"/>
-        <filter val="待测试"/>
-        <filter val="待定"/>
         <filter val="返回"/>
         <filter val="返回，优化"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="11"/>
+    <filterColumn colId="11">
+      <filters blank="1">
+        <filter val="是"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="15"/>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/测试单-电子书_daisy_170108.xlsx
+++ b/测试单-电子书_daisy_170108.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="303">
   <si>
     <t>编号</t>
   </si>
@@ -935,10 +935,6 @@
   </si>
   <si>
     <t>【魏】12.22：40号问题，按照方案一，以目前的程序架构设计，真的很难弄。69号问题我这边用16号机器测试没问题啊，我再试试看。至于你说直接退到“目录浏览”根目录界面，这个我以前考虑过，无法实现，两个原因：1.从目录进去的时候因为存在目录树，是递归调用，很难做。2.也有可能是从收藏和最近浏览进入的。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1089,10 +1085,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>返回，优化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>上述记录现象发生后，按【返回】键退到文档列表，反显未定位在刚才播放的文档上。未记忆焦点项。【9月27日版】存在
 【11月3日版】因为源数据就没有音频，所以不播放。目前处理为：不闪退，仅显示文本，没有声音。So，此现象不存在。</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1977,6 +1969,14 @@
   </si>
   <si>
     <t>添加了文加件判断方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2584,7 +2584,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="189">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3151,6 +3151,9 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="64">
@@ -3723,10 +3726,10 @@
         <v>42724</v>
       </c>
       <c r="F11" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>215</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="40" customFormat="1">
@@ -3743,10 +3746,10 @@
         <v>42724</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="40" customFormat="1">
@@ -3763,10 +3766,10 @@
         <v>42724</v>
       </c>
       <c r="F13" s="31" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="40" customFormat="1">
@@ -3783,10 +3786,10 @@
         <v>42741</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="13" customFormat="1">
@@ -3903,7 +3906,7 @@
         <v>200</v>
       </c>
       <c r="F40" s="51" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -3919,10 +3922,10 @@
   <dimension ref="A1:S91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="K16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N71" sqref="N71"/>
+      <selection pane="bottomRight" activeCell="N72" sqref="N72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4176,7 +4179,7 @@
       <c r="N6" s="78"/>
       <c r="O6" s="79"/>
       <c r="P6" s="77" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:19" s="47" customFormat="1" ht="27" hidden="1">
@@ -4216,7 +4219,7 @@
       </c>
       <c r="M7" s="86"/>
       <c r="N7" s="87" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O7" s="88">
         <v>42731</v>
@@ -4304,7 +4307,7 @@
       </c>
       <c r="M9" s="84"/>
       <c r="N9" s="81" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="O9" s="79">
         <v>42729</v>
@@ -4386,7 +4389,7 @@
         <v>42616</v>
       </c>
       <c r="P11" s="89" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:19" s="132" customFormat="1" ht="40.5" hidden="1">
@@ -4536,10 +4539,10 @@
       <c r="J15" s="149"/>
       <c r="K15" s="149"/>
       <c r="L15" s="128" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="N15" s="129" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="O15" s="150">
         <v>42729</v>
@@ -4553,7 +4556,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="144" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C16" s="144" t="s">
         <v>18</v>
@@ -4565,24 +4568,22 @@
         <v>42621</v>
       </c>
       <c r="F16" s="156" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G16" s="157" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H16" s="183" t="s">
         <v>41</v>
       </c>
-      <c r="I16" s="183" t="s">
-        <v>222</v>
-      </c>
+      <c r="I16" s="183"/>
       <c r="K16" s="150"/>
       <c r="L16" s="160"/>
       <c r="M16" s="160"/>
       <c r="N16" s="129"/>
       <c r="O16" s="160"/>
       <c r="P16" s="128" t="s">
-        <v>232</v>
+        <v>301</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="118" customFormat="1" ht="54" hidden="1">
@@ -4590,7 +4591,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="107" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C17" s="107" t="s">
         <v>18</v>
@@ -4605,10 +4606,10 @@
         <v>29</v>
       </c>
       <c r="G17" s="120" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="I17" s="107" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K17" s="108">
         <v>42677</v>
@@ -4735,7 +4736,7 @@
       </c>
       <c r="M20" s="82"/>
       <c r="N20" s="81" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O20" s="79">
         <v>42729</v>
@@ -4819,7 +4820,7 @@
       </c>
       <c r="M22" s="80"/>
       <c r="N22" s="81" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O22" s="79">
         <v>42729</v>
@@ -4901,7 +4902,7 @@
       </c>
       <c r="M24" s="82"/>
       <c r="N24" s="81" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O24" s="79">
         <v>42729</v>
@@ -4944,7 +4945,7 @@
       </c>
       <c r="M25" s="82"/>
       <c r="N25" s="81" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="O25" s="79">
         <v>42729</v>
@@ -5429,10 +5430,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="177" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C38" s="177" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D38" s="178">
         <v>42640</v>
@@ -5441,16 +5442,16 @@
         <v>42641</v>
       </c>
       <c r="F38" s="180" t="s">
+        <v>249</v>
+      </c>
+      <c r="G38" s="181" t="s">
+        <v>250</v>
+      </c>
+      <c r="H38" s="182" t="s">
         <v>251</v>
       </c>
-      <c r="G38" s="181" t="s">
-        <v>252</v>
-      </c>
-      <c r="H38" s="182" t="s">
-        <v>253</v>
-      </c>
       <c r="I38" s="182" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K38" s="178">
         <v>42741</v>
@@ -5611,7 +5612,7 @@
         <v>139</v>
       </c>
       <c r="G42" s="161" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H42" s="154" t="s">
         <v>54</v>
@@ -5624,7 +5625,7 @@
       </c>
       <c r="M42" s="164"/>
       <c r="N42" s="129" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="O42" s="150">
         <v>42724</v>
@@ -5991,7 +5992,7 @@
         <v>42668</v>
       </c>
       <c r="F51" s="165" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G51" s="166" t="s">
         <v>193</v>
@@ -6199,7 +6200,7 @@
         <v>90</v>
       </c>
       <c r="G56" s="166" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H56" s="154" t="s">
         <v>41</v>
@@ -6236,10 +6237,10 @@
         <v>42669</v>
       </c>
       <c r="F57" s="165" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G57" s="153" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H57" s="154" t="s">
         <v>41</v>
@@ -6250,7 +6251,7 @@
       <c r="N57" s="154"/>
       <c r="O57" s="150"/>
       <c r="P57" s="144" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="58" spans="1:16" s="129" customFormat="1">
@@ -6273,7 +6274,7 @@
         <v>134</v>
       </c>
       <c r="G58" s="168" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H58" s="169" t="s">
         <v>199</v>
@@ -6360,7 +6361,7 @@
       </c>
       <c r="M60" s="70"/>
       <c r="N60" s="75" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O60" s="72">
         <v>42724</v>
@@ -6402,7 +6403,7 @@
         <v>82</v>
       </c>
       <c r="N61" s="104" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O61" s="91">
         <v>42724</v>
@@ -6413,10 +6414,10 @@
         <v>60</v>
       </c>
       <c r="B62" s="177" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C62" s="177" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D62" s="178">
         <v>42695</v>
@@ -6425,16 +6426,16 @@
         <v>42698</v>
       </c>
       <c r="F62" s="180" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G62" s="184" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H62" s="182" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I62" s="185" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K62" s="178">
         <v>42741</v>
@@ -6471,13 +6472,13 @@
         <v>160</v>
       </c>
       <c r="G63" s="186" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H63" s="182" t="s">
         <v>54</v>
       </c>
       <c r="I63" s="185" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K63" s="178">
         <v>42741</v>
@@ -6487,7 +6488,7 @@
       </c>
       <c r="M63" s="160"/>
       <c r="N63" s="185" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="O63" s="178">
         <v>42729</v>
@@ -6516,13 +6517,13 @@
         <v>160</v>
       </c>
       <c r="G64" s="186" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H64" s="182" t="s">
         <v>54</v>
       </c>
       <c r="I64" s="185" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K64" s="178">
         <v>42741</v>
@@ -6544,10 +6545,10 @@
         <v>63</v>
       </c>
       <c r="B65" s="177" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C65" s="177" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D65" s="178">
         <v>42695</v>
@@ -6556,16 +6557,16 @@
         <v>42698</v>
       </c>
       <c r="F65" s="180" t="s">
+        <v>261</v>
+      </c>
+      <c r="G65" s="184" t="s">
+        <v>262</v>
+      </c>
+      <c r="H65" s="182" t="s">
+        <v>266</v>
+      </c>
+      <c r="I65" s="185" t="s">
         <v>263</v>
-      </c>
-      <c r="G65" s="184" t="s">
-        <v>264</v>
-      </c>
-      <c r="H65" s="182" t="s">
-        <v>268</v>
-      </c>
-      <c r="I65" s="185" t="s">
-        <v>265</v>
       </c>
       <c r="K65" s="178">
         <v>42741</v>
@@ -6575,7 +6576,7 @@
       <c r="N65" s="160"/>
       <c r="O65" s="160"/>
       <c r="P65" s="176" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="66" spans="1:16" ht="67.5">
@@ -6598,7 +6599,7 @@
         <v>161</v>
       </c>
       <c r="G66" s="173" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H66" s="154" t="s">
         <v>41</v>
@@ -6628,10 +6629,10 @@
         <v>42698</v>
       </c>
       <c r="F67" s="122" t="s">
+        <v>209</v>
+      </c>
+      <c r="G67" s="126" t="s">
         <v>210</v>
-      </c>
-      <c r="G67" s="126" t="s">
-        <v>211</v>
       </c>
       <c r="I67" s="112" t="s">
         <v>194</v>
@@ -6670,7 +6671,7 @@
         <v>162</v>
       </c>
       <c r="G68" s="66" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I68" s="56" t="s">
         <v>195</v>
@@ -6683,7 +6684,7 @@
       </c>
       <c r="M68" s="70"/>
       <c r="N68" s="75" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="O68" s="72">
         <v>42724</v>
@@ -6712,7 +6713,7 @@
         <v>196</v>
       </c>
       <c r="G69" s="65" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I69" s="56" t="s">
         <v>194</v>
@@ -6767,7 +6768,7 @@
         <v>82</v>
       </c>
       <c r="N70" s="76" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O70" s="91">
         <v>42724</v>
@@ -6776,7 +6777,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="121.5">
+    <row r="71" spans="1:16" ht="121.5" hidden="1">
       <c r="A71" s="106">
         <v>69</v>
       </c>
@@ -6796,7 +6797,7 @@
         <v>174</v>
       </c>
       <c r="G71" s="148" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H71" s="154" t="s">
         <v>41</v>
@@ -6833,19 +6834,16 @@
         <v>182</v>
       </c>
       <c r="G72" s="130" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H72" s="154" t="s">
         <v>41</v>
       </c>
-      <c r="I72" s="129" t="s">
-        <v>208</v>
-      </c>
       <c r="L72" s="128" t="s">
-        <v>82</v>
+        <v>302</v>
       </c>
       <c r="O72" s="150">
-        <v>42729</v>
+        <v>42384</v>
       </c>
       <c r="P72" s="128" t="s">
         <v>144</v>
@@ -6877,13 +6875,13 @@
         <v>41</v>
       </c>
       <c r="I73" s="129" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="L73" s="128" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="N73" s="174" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="O73" s="150">
         <v>42729</v>
@@ -6912,13 +6910,13 @@
         <v>200</v>
       </c>
       <c r="G74" s="175" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H74" s="154" t="s">
         <v>41</v>
       </c>
       <c r="P74" s="128" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="75" spans="1:16" s="176" customFormat="1" hidden="1">
@@ -6926,10 +6924,10 @@
         <v>73</v>
       </c>
       <c r="B75" s="177" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C75" s="177" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D75" s="187">
         <v>42724</v>
@@ -6938,13 +6936,13 @@
         <v>42727</v>
       </c>
       <c r="F75" s="185" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G75" s="188" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I75" s="185" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K75" s="178">
         <v>42741</v>
@@ -6961,7 +6959,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="81">
+    <row r="76" spans="1:16" ht="81" hidden="1">
       <c r="A76" s="106">
         <v>74</v>
       </c>
@@ -6978,17 +6976,17 @@
         <v>42727</v>
       </c>
       <c r="F76" s="129" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G76" s="130" t="s">
-        <v>288</v>
-      </c>
-      <c r="L76" s="132" t="s">
-        <v>301</v>
+        <v>286</v>
+      </c>
+      <c r="L76" s="189" t="s">
+        <v>299</v>
       </c>
       <c r="M76" s="132"/>
       <c r="N76" s="132" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="O76" s="151">
         <v>42749</v>
@@ -7014,16 +7012,16 @@
         <v>42727</v>
       </c>
       <c r="F77" s="185" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G77" s="188" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H77" s="182" t="s">
         <v>54</v>
       </c>
       <c r="I77" s="185" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K77" s="178">
         <v>42741</v>
@@ -7057,13 +7055,13 @@
         <v>42727</v>
       </c>
       <c r="F78" s="185" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G78" s="188" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I78" s="185" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K78" s="178">
         <v>42741</v>
@@ -7073,7 +7071,7 @@
       </c>
       <c r="M78" s="160"/>
       <c r="N78" s="185" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O78" s="178">
         <v>42729</v>
@@ -7099,19 +7097,13 @@
         <v>42727</v>
       </c>
       <c r="F79" s="129" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G79" s="130" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H79" s="154" t="s">
         <v>41</v>
-      </c>
-      <c r="I79" s="129" t="s">
-        <v>208</v>
-      </c>
-      <c r="L79" s="128" t="s">
-        <v>82</v>
       </c>
       <c r="O79" s="150">
         <v>42729</v>
@@ -7137,22 +7129,16 @@
         <v>42727</v>
       </c>
       <c r="F80" s="129" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G80" s="130" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H80" s="154" t="s">
         <v>41</v>
       </c>
-      <c r="I80" s="129" t="s">
-        <v>208</v>
-      </c>
-      <c r="L80" s="128" t="s">
-        <v>82</v>
-      </c>
       <c r="N80" s="129" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O80" s="150">
         <v>42729</v>
@@ -7181,7 +7167,7 @@
         <v>33</v>
       </c>
       <c r="G81" s="175" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L81" s="132"/>
       <c r="M81" s="132"/>
@@ -7211,14 +7197,14 @@
         <v>33</v>
       </c>
       <c r="G82" s="175" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="L82" s="128" t="s">
         <v>83</v>
       </c>
       <c r="M82" s="132"/>
       <c r="N82" s="174" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O82" s="150">
         <v>42729</v>
@@ -7232,10 +7218,10 @@
         <v>81</v>
       </c>
       <c r="B83" s="177" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C83" s="177" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D83" s="187">
         <v>42724</v>
@@ -7244,13 +7230,13 @@
         <v>42728</v>
       </c>
       <c r="F83" s="185" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G83" s="188" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I83" s="185" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K83" s="178">
         <v>42741</v>
@@ -7260,7 +7246,7 @@
       </c>
       <c r="M83" s="160"/>
       <c r="N83" s="185" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="O83" s="178">
         <v>42729</v>
@@ -7286,10 +7272,10 @@
         <v>42741</v>
       </c>
       <c r="F84" s="129" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G84" s="130" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H84" s="154" t="s">
         <v>54</v>
@@ -7312,10 +7298,10 @@
         <v>42741</v>
       </c>
       <c r="F85" s="156" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G85" s="130" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="86" spans="1:16" ht="54">
@@ -7335,10 +7321,10 @@
         <v>42741</v>
       </c>
       <c r="F86" s="156" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G86" s="153" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H86" s="154" t="s">
         <v>41</v>
@@ -7349,7 +7335,7 @@
       <c r="N86" s="154"/>
       <c r="O86" s="150"/>
       <c r="P86" s="144" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="87" spans="1:16" ht="27">
@@ -7369,10 +7355,10 @@
         <v>42741</v>
       </c>
       <c r="F87" s="156" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G87" s="153" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="88" spans="1:16" ht="40.5">
@@ -7392,10 +7378,10 @@
         <v>42741</v>
       </c>
       <c r="F88" s="156" t="s">
+        <v>288</v>
+      </c>
+      <c r="G88" s="153" t="s">
         <v>290</v>
-      </c>
-      <c r="G88" s="153" t="s">
-        <v>292</v>
       </c>
       <c r="H88" s="154" t="s">
         <v>41</v>
@@ -7418,14 +7404,14 @@
         <v>42741</v>
       </c>
       <c r="F89" s="156" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G89" s="153" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H89" s="154"/>
     </row>
-    <row r="90" spans="1:16" ht="27">
+    <row r="90" spans="1:16" ht="27" hidden="1">
       <c r="A90" s="106">
         <v>88</v>
       </c>
@@ -7442,23 +7428,23 @@
         <v>42741</v>
       </c>
       <c r="F90" s="156" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G90" s="153" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H90" s="154"/>
       <c r="L90" s="128" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="O90" s="150">
         <v>42749</v>
       </c>
       <c r="P90" s="128" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" hidden="1">
       <c r="A91" s="106">
         <v>89</v>
       </c>
@@ -7475,22 +7461,22 @@
         <v>42741</v>
       </c>
       <c r="F91" s="156" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G91" s="153" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H91" s="169" t="s">
         <v>199</v>
       </c>
       <c r="L91" s="128" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="O91" s="150">
         <v>42749</v>
       </c>
       <c r="P91" s="128" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -7502,9 +7488,7 @@
       </filters>
     </filterColumn>
     <filterColumn colId="11">
-      <filters blank="1">
-        <filter val="是"/>
-      </filters>
+      <filters blank="1"/>
     </filterColumn>
     <filterColumn colId="15"/>
   </autoFilter>

--- a/测试单-电子书_daisy_170108.xlsx
+++ b/测试单-电子书_daisy_170108.xlsx
@@ -3922,10 +3922,10 @@
   <dimension ref="A1:S91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="J79" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N72" sqref="N72"/>
+      <selection pane="bottomRight" activeCell="G84" sqref="G84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6814,7 +6814,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="121.5">
+    <row r="72" spans="1:16" ht="121.5" hidden="1">
       <c r="A72" s="106">
         <v>70</v>
       </c>

--- a/测试单-电子书_daisy_170108.xlsx
+++ b/测试单-电子书_daisy_170108.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="305">
   <si>
     <t>编号</t>
   </si>
@@ -1977,6 +1977,14 @@
   </si>
   <si>
     <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这些节点都没有实际对应的句子内容。修改为如果是这种情况，直接进入这个节点对应的第一个子节点内容播放。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3222,7 +3230,12 @@
     <cellStyle name="常规 3 9" xfId="37"/>
     <cellStyle name="常规 6" xfId="6"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -3922,10 +3935,10 @@
   <dimension ref="A1:S91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="J79" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="J85" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G84" sqref="G84"/>
+      <selection pane="bottomRight" activeCell="R79" sqref="R79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5975,7 +5988,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="94.5" hidden="1">
+    <row r="51" spans="1:16" ht="94.5">
       <c r="A51" s="106">
         <v>49</v>
       </c>
@@ -6015,7 +6028,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="27" hidden="1">
+    <row r="52" spans="1:16" ht="27">
       <c r="A52" s="106">
         <v>50</v>
       </c>
@@ -6180,7 +6193,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="54" hidden="1">
+    <row r="56" spans="1:16" ht="54">
       <c r="A56" s="106">
         <v>54</v>
       </c>
@@ -6777,7 +6790,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="121.5" hidden="1">
+    <row r="71" spans="1:16" ht="121.5">
       <c r="A71" s="106">
         <v>69</v>
       </c>
@@ -6814,7 +6827,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="121.5" hidden="1">
+    <row r="72" spans="1:16" ht="121.5">
       <c r="A72" s="106">
         <v>70</v>
       </c>
@@ -6959,7 +6972,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="81" hidden="1">
+    <row r="76" spans="1:16" ht="81">
       <c r="A76" s="106">
         <v>74</v>
       </c>
@@ -7105,14 +7118,20 @@
       <c r="H79" s="154" t="s">
         <v>41</v>
       </c>
+      <c r="L79" s="128" t="s">
+        <v>303</v>
+      </c>
+      <c r="N79" s="129" t="s">
+        <v>304</v>
+      </c>
       <c r="O79" s="150">
-        <v>42729</v>
+        <v>42752</v>
       </c>
       <c r="P79" s="128" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="27">
+    <row r="80" spans="1:16" ht="67.5">
       <c r="A80" s="106">
         <v>78</v>
       </c>
@@ -7137,11 +7156,14 @@
       <c r="H80" s="154" t="s">
         <v>41</v>
       </c>
+      <c r="L80" s="128" t="s">
+        <v>303</v>
+      </c>
       <c r="N80" s="129" t="s">
-        <v>234</v>
+        <v>304</v>
       </c>
       <c r="O80" s="150">
-        <v>42729</v>
+        <v>42752</v>
       </c>
       <c r="P80" s="128" t="s">
         <v>144</v>
@@ -7177,7 +7199,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="27" hidden="1">
+    <row r="82" spans="1:16" ht="27">
       <c r="A82" s="106">
         <v>80</v>
       </c>
@@ -7411,7 +7433,7 @@
       </c>
       <c r="H89" s="154"/>
     </row>
-    <row r="90" spans="1:16" ht="27" hidden="1">
+    <row r="90" spans="1:16" ht="27">
       <c r="A90" s="106">
         <v>88</v>
       </c>
@@ -7444,7 +7466,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="91" spans="1:16" hidden="1">
+    <row r="91" spans="1:16">
       <c r="A91" s="106">
         <v>89</v>
       </c>
@@ -7487,19 +7509,17 @@
         <filter val="返回，优化"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="11">
-      <filters blank="1"/>
-    </filterColumn>
+    <filterColumn colId="11"/>
     <filterColumn colId="15"/>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I1:I73 I75:I1048576">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="否">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="否">
       <formula>NOT(ISERROR(SEARCH("否",L1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/测试单-电子书_daisy_170108.xlsx
+++ b/测试单-电子书_daisy_170108.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="308">
   <si>
     <t>编号</t>
   </si>
@@ -1985,6 +1985,18 @@
   </si>
   <si>
     <t>这些节点都没有实际对应的句子内容。修改为如果是这种情况，直接进入这个节点对应的第一个子节点内容播放。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此处不应该播放章节名称，已修改。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3230,12 +3242,7 @@
     <cellStyle name="常规 3 9" xfId="37"/>
     <cellStyle name="常规 6" xfId="6"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -3935,10 +3942,10 @@
   <dimension ref="A1:S91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="J85" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="J66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R79" sqref="R79"/>
+      <selection pane="bottomRight" activeCell="N87" sqref="N87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3957,7 +3964,7 @@
     <col min="12" max="12" width="5.625" style="128" customWidth="1"/>
     <col min="13" max="13" width="7.625" style="128" customWidth="1"/>
     <col min="14" max="14" width="23.75" style="129" customWidth="1"/>
-    <col min="15" max="15" width="9.375" style="128" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5" style="128" bestFit="1" customWidth="1"/>
     <col min="16" max="18" width="9" style="128"/>
     <col min="19" max="19" width="9.25" style="128" bestFit="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="128"/>
@@ -5988,7 +5995,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="94.5">
+    <row r="51" spans="1:16" ht="94.5" hidden="1">
       <c r="A51" s="106">
         <v>49</v>
       </c>
@@ -6028,7 +6035,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="27">
+    <row r="52" spans="1:16" ht="27" hidden="1">
       <c r="A52" s="106">
         <v>50</v>
       </c>
@@ -6193,7 +6200,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="54">
+    <row r="56" spans="1:16" ht="54" hidden="1">
       <c r="A56" s="106">
         <v>54</v>
       </c>
@@ -6790,7 +6797,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="121.5">
+    <row r="71" spans="1:16" ht="121.5" hidden="1">
       <c r="A71" s="106">
         <v>69</v>
       </c>
@@ -6827,7 +6834,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="121.5">
+    <row r="72" spans="1:16" ht="121.5" hidden="1">
       <c r="A72" s="106">
         <v>70</v>
       </c>
@@ -6972,7 +6979,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="81">
+    <row r="76" spans="1:16" ht="81" hidden="1">
       <c r="A76" s="106">
         <v>74</v>
       </c>
@@ -7093,7 +7100,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="67.5">
+    <row r="79" spans="1:16" ht="67.5" hidden="1">
       <c r="A79" s="106">
         <v>77</v>
       </c>
@@ -7131,7 +7138,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="67.5">
+    <row r="80" spans="1:16" ht="67.5" hidden="1">
       <c r="A80" s="106">
         <v>78</v>
       </c>
@@ -7199,7 +7206,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="27">
+    <row r="82" spans="1:16" ht="27" hidden="1">
       <c r="A82" s="106">
         <v>80</v>
       </c>
@@ -7360,7 +7367,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="27">
+    <row r="87" spans="1:16" ht="27" hidden="1">
       <c r="A87" s="106">
         <v>85</v>
       </c>
@@ -7381,6 +7388,18 @@
       </c>
       <c r="G87" s="153" t="s">
         <v>287</v>
+      </c>
+      <c r="L87" s="128" t="s">
+        <v>305</v>
+      </c>
+      <c r="N87" s="129" t="s">
+        <v>307</v>
+      </c>
+      <c r="O87" s="150">
+        <v>42752</v>
+      </c>
+      <c r="P87" s="128" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="88" spans="1:16" ht="40.5">
@@ -7433,7 +7452,7 @@
       </c>
       <c r="H89" s="154"/>
     </row>
-    <row r="90" spans="1:16" ht="27">
+    <row r="90" spans="1:16" ht="27" hidden="1">
       <c r="A90" s="106">
         <v>88</v>
       </c>
@@ -7466,7 +7485,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="91" spans="1:16">
+    <row r="91" spans="1:16" hidden="1">
       <c r="A91" s="106">
         <v>89</v>
       </c>
@@ -7509,17 +7528,19 @@
         <filter val="返回，优化"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="11"/>
+    <filterColumn colId="11">
+      <filters blank="1"/>
+    </filterColumn>
     <filterColumn colId="15"/>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I1:I73 I75:I1048576">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="否">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="否">
       <formula>NOT(ISERROR(SEARCH("否",L1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/测试单-电子书_daisy_170108.xlsx
+++ b/测试单-电子书_daisy_170108.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="310">
   <si>
     <t>编号</t>
   </si>
@@ -1997,6 +1997,14 @@
   </si>
   <si>
     <t>此处不应该播放章节名称，已修改。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3942,10 +3950,10 @@
   <dimension ref="A1:S91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="J66" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="J85" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N87" sqref="N87"/>
+      <selection pane="bottomRight" activeCell="O96" sqref="O96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5995,7 +6003,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="94.5" hidden="1">
+    <row r="51" spans="1:16" ht="94.5">
       <c r="A51" s="106">
         <v>49</v>
       </c>
@@ -6035,7 +6043,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="27" hidden="1">
+    <row r="52" spans="1:16" ht="27">
       <c r="A52" s="106">
         <v>50</v>
       </c>
@@ -6200,7 +6208,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="54" hidden="1">
+    <row r="56" spans="1:16" ht="54">
       <c r="A56" s="106">
         <v>54</v>
       </c>
@@ -6797,7 +6805,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="121.5" hidden="1">
+    <row r="71" spans="1:16" ht="121.5">
       <c r="A71" s="106">
         <v>69</v>
       </c>
@@ -6834,7 +6842,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="121.5" hidden="1">
+    <row r="72" spans="1:16" ht="121.5">
       <c r="A72" s="106">
         <v>70</v>
       </c>
@@ -6979,7 +6987,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="81" hidden="1">
+    <row r="76" spans="1:16" ht="81">
       <c r="A76" s="106">
         <v>74</v>
       </c>
@@ -7100,7 +7108,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="67.5" hidden="1">
+    <row r="79" spans="1:16" ht="67.5">
       <c r="A79" s="106">
         <v>77</v>
       </c>
@@ -7138,7 +7146,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="67.5" hidden="1">
+    <row r="80" spans="1:16" ht="67.5">
       <c r="A80" s="106">
         <v>78</v>
       </c>
@@ -7206,7 +7214,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="27" hidden="1">
+    <row r="82" spans="1:16" ht="27">
       <c r="A82" s="106">
         <v>80</v>
       </c>
@@ -7367,7 +7375,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="27" hidden="1">
+    <row r="87" spans="1:16" ht="27">
       <c r="A87" s="106">
         <v>85</v>
       </c>
@@ -7451,8 +7459,17 @@
         <v>291</v>
       </c>
       <c r="H89" s="154"/>
-    </row>
-    <row r="90" spans="1:16" ht="27" hidden="1">
+      <c r="L89" s="128" t="s">
+        <v>308</v>
+      </c>
+      <c r="O89" s="150">
+        <v>42752</v>
+      </c>
+      <c r="P89" s="128" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" ht="27">
       <c r="A90" s="106">
         <v>88</v>
       </c>
@@ -7485,7 +7502,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="91" spans="1:16" hidden="1">
+    <row r="91" spans="1:16">
       <c r="A91" s="106">
         <v>89</v>
       </c>
@@ -7528,9 +7545,7 @@
         <filter val="返回，优化"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="11">
-      <filters blank="1"/>
-    </filterColumn>
+    <filterColumn colId="11"/>
     <filterColumn colId="15"/>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/测试单-电子书_daisy_170108.xlsx
+++ b/测试单-电子书_daisy_170108.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="313">
   <si>
     <t>编号</t>
   </si>
@@ -2001,6 +2001,18 @@
   </si>
   <si>
     <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改了跳转到文档开头的代码逻辑，我这边不能复现。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3950,10 +3962,10 @@
   <dimension ref="A1:S91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="J85" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O96" sqref="O96"/>
+      <selection pane="bottomRight" activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6003,7 +6015,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="94.5">
+    <row r="51" spans="1:16" ht="94.5" hidden="1">
       <c r="A51" s="106">
         <v>49</v>
       </c>
@@ -6043,7 +6055,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="27">
+    <row r="52" spans="1:16" ht="27" hidden="1">
       <c r="A52" s="106">
         <v>50</v>
       </c>
@@ -6208,7 +6220,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="54">
+    <row r="56" spans="1:16" ht="54" hidden="1">
       <c r="A56" s="106">
         <v>54</v>
       </c>
@@ -6805,7 +6817,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="121.5">
+    <row r="71" spans="1:16" ht="121.5" hidden="1">
       <c r="A71" s="106">
         <v>69</v>
       </c>
@@ -6842,7 +6854,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="121.5">
+    <row r="72" spans="1:16" ht="121.5" hidden="1">
       <c r="A72" s="106">
         <v>70</v>
       </c>
@@ -6987,7 +6999,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="81">
+    <row r="76" spans="1:16" ht="81" hidden="1">
       <c r="A76" s="106">
         <v>74</v>
       </c>
@@ -7108,7 +7120,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="67.5">
+    <row r="79" spans="1:16" ht="67.5" hidden="1">
       <c r="A79" s="106">
         <v>77</v>
       </c>
@@ -7146,7 +7158,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="67.5">
+    <row r="80" spans="1:16" ht="67.5" hidden="1">
       <c r="A80" s="106">
         <v>78</v>
       </c>
@@ -7214,7 +7226,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="27">
+    <row r="82" spans="1:16" ht="27" hidden="1">
       <c r="A82" s="106">
         <v>80</v>
       </c>
@@ -7375,7 +7387,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="27">
+    <row r="87" spans="1:16" ht="27" hidden="1">
       <c r="A87" s="106">
         <v>85</v>
       </c>
@@ -7410,7 +7422,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="40.5">
+    <row r="88" spans="1:16" ht="40.5" hidden="1">
       <c r="A88" s="106">
         <v>86</v>
       </c>
@@ -7435,8 +7447,20 @@
       <c r="H88" s="154" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="89" spans="1:16" ht="40.5">
+      <c r="L88" s="128" t="s">
+        <v>310</v>
+      </c>
+      <c r="N88" s="129" t="s">
+        <v>311</v>
+      </c>
+      <c r="O88" s="155">
+        <v>42754</v>
+      </c>
+      <c r="P88" s="128" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" ht="40.5" hidden="1">
       <c r="A89" s="106">
         <v>87</v>
       </c>
@@ -7469,7 +7493,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="27">
+    <row r="90" spans="1:16" ht="27" hidden="1">
       <c r="A90" s="106">
         <v>88</v>
       </c>
@@ -7502,7 +7526,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="91" spans="1:16">
+    <row r="91" spans="1:16" hidden="1">
       <c r="A91" s="106">
         <v>89</v>
       </c>
@@ -7545,7 +7569,9 @@
         <filter val="返回，优化"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="11"/>
+    <filterColumn colId="11">
+      <filters blank="1"/>
+    </filterColumn>
     <filterColumn colId="15"/>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/测试单-电子书_daisy_170108.xlsx
+++ b/测试单-电子书_daisy_170108.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="314">
   <si>
     <t>编号</t>
   </si>
@@ -2017,6 +2017,10 @@
   </si>
   <si>
     <t>z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按上下键跨章节这个真不好修改了，所以按照你说的建议二修改。其他两项修改了。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3262,7 +3266,12 @@
     <cellStyle name="常规 3 9" xfId="37"/>
     <cellStyle name="常规 6" xfId="6"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -3965,7 +3974,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G57" sqref="G57"/>
+      <selection pane="bottomRight" activeCell="O86" sqref="O86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6015,7 +6024,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="94.5" hidden="1">
+    <row r="51" spans="1:16" ht="94.5">
       <c r="A51" s="106">
         <v>49</v>
       </c>
@@ -6055,7 +6064,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="27" hidden="1">
+    <row r="52" spans="1:16" ht="27">
       <c r="A52" s="106">
         <v>50</v>
       </c>
@@ -6220,7 +6229,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="54" hidden="1">
+    <row r="56" spans="1:16" ht="54">
       <c r="A56" s="106">
         <v>54</v>
       </c>
@@ -6286,10 +6295,14 @@
         <v>41</v>
       </c>
       <c r="I57" s="154"/>
-      <c r="L57" s="144"/>
+      <c r="L57" s="144" t="s">
+        <v>82</v>
+      </c>
       <c r="M57" s="154"/>
       <c r="N57" s="154"/>
-      <c r="O57" s="150"/>
+      <c r="O57" s="150">
+        <v>42754</v>
+      </c>
       <c r="P57" s="144" t="s">
         <v>230</v>
       </c>
@@ -6817,7 +6830,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="121.5" hidden="1">
+    <row r="71" spans="1:16" ht="121.5">
       <c r="A71" s="106">
         <v>69</v>
       </c>
@@ -6854,7 +6867,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="121.5" hidden="1">
+    <row r="72" spans="1:16" ht="121.5">
       <c r="A72" s="106">
         <v>70</v>
       </c>
@@ -6954,6 +6967,15 @@
       </c>
       <c r="H74" s="154" t="s">
         <v>41</v>
+      </c>
+      <c r="L74" s="144" t="s">
+        <v>82</v>
+      </c>
+      <c r="N74" s="129" t="s">
+        <v>313</v>
+      </c>
+      <c r="O74" s="150">
+        <v>42754</v>
       </c>
       <c r="P74" s="128" t="s">
         <v>230</v>
@@ -6999,7 +7021,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="81" hidden="1">
+    <row r="76" spans="1:16" ht="81">
       <c r="A76" s="106">
         <v>74</v>
       </c>
@@ -7120,7 +7142,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="67.5" hidden="1">
+    <row r="79" spans="1:16" ht="67.5">
       <c r="A79" s="106">
         <v>77</v>
       </c>
@@ -7158,7 +7180,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="67.5" hidden="1">
+    <row r="80" spans="1:16" ht="67.5">
       <c r="A80" s="106">
         <v>78</v>
       </c>
@@ -7226,7 +7248,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="27" hidden="1">
+    <row r="82" spans="1:16" ht="27">
       <c r="A82" s="106">
         <v>80</v>
       </c>
@@ -7379,15 +7401,19 @@
         <v>41</v>
       </c>
       <c r="I86" s="154"/>
-      <c r="L86" s="144"/>
+      <c r="L86" s="144" t="s">
+        <v>82</v>
+      </c>
       <c r="M86" s="154"/>
       <c r="N86" s="154"/>
-      <c r="O86" s="150"/>
+      <c r="O86" s="150">
+        <v>42754</v>
+      </c>
       <c r="P86" s="144" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="27" hidden="1">
+    <row r="87" spans="1:16" ht="27">
       <c r="A87" s="106">
         <v>85</v>
       </c>
@@ -7422,7 +7448,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="40.5" hidden="1">
+    <row r="88" spans="1:16" ht="40.5">
       <c r="A88" s="106">
         <v>86</v>
       </c>
@@ -7460,7 +7486,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="40.5" hidden="1">
+    <row r="89" spans="1:16" ht="40.5">
       <c r="A89" s="106">
         <v>87</v>
       </c>
@@ -7493,7 +7519,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="27" hidden="1">
+    <row r="90" spans="1:16" ht="27">
       <c r="A90" s="106">
         <v>88</v>
       </c>
@@ -7526,7 +7552,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="91" spans="1:16" hidden="1">
+    <row r="91" spans="1:16">
       <c r="A91" s="106">
         <v>89</v>
       </c>
@@ -7569,24 +7595,22 @@
         <filter val="返回，优化"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="11">
-      <filters blank="1"/>
-    </filterColumn>
+    <filterColumn colId="11"/>
     <filterColumn colId="15"/>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I1:I73 I75:I1048576">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="否">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="否">
       <formula>NOT(ISERROR(SEARCH("否",L1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L86 L18:L49 L60:L61 L51:L57">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L86 L18:L49 L60:L61 L51:L57 L74">
       <formula1>"是否修改,是,否,其他"</formula1>
     </dataValidation>
   </dataValidations>

--- a/测试单-电子书_daisy_170108.xlsx
+++ b/测试单-电子书_daisy_170108.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="317">
   <si>
     <t>编号</t>
   </si>
@@ -2021,6 +2021,18 @@
   </si>
   <si>
     <t>按上下键跨章节这个真不好修改了，所以按照你说的建议二修改。其他两项修改了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前测试多次均可以正常播放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>j</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3266,12 +3278,7 @@
     <cellStyle name="常规 3 9" xfId="37"/>
     <cellStyle name="常规 6" xfId="6"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -3974,7 +3981,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O86" sqref="O86"/>
+      <selection pane="bottomRight" activeCell="P84" sqref="P84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6024,7 +6031,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="94.5">
+    <row r="51" spans="1:16" ht="94.5" hidden="1">
       <c r="A51" s="106">
         <v>49</v>
       </c>
@@ -6064,7 +6071,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="27">
+    <row r="52" spans="1:16" ht="27" hidden="1">
       <c r="A52" s="106">
         <v>50</v>
       </c>
@@ -6229,7 +6236,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="54">
+    <row r="56" spans="1:16" ht="54" hidden="1">
       <c r="A56" s="106">
         <v>54</v>
       </c>
@@ -6269,7 +6276,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="40.5">
+    <row r="57" spans="1:16" ht="40.5" hidden="1">
       <c r="A57" s="106">
         <v>55</v>
       </c>
@@ -6830,7 +6837,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="121.5">
+    <row r="71" spans="1:16" ht="121.5" hidden="1">
       <c r="A71" s="106">
         <v>69</v>
       </c>
@@ -6867,7 +6874,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="121.5">
+    <row r="72" spans="1:16" ht="121.5" hidden="1">
       <c r="A72" s="106">
         <v>70</v>
       </c>
@@ -6943,7 +6950,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="74" spans="1:16" ht="67.5">
+    <row r="74" spans="1:16" ht="67.5" hidden="1">
       <c r="A74" s="106">
         <v>72</v>
       </c>
@@ -7021,7 +7028,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="81">
+    <row r="76" spans="1:16" ht="81" hidden="1">
       <c r="A76" s="106">
         <v>74</v>
       </c>
@@ -7142,7 +7149,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="67.5">
+    <row r="79" spans="1:16" ht="67.5" hidden="1">
       <c r="A79" s="106">
         <v>77</v>
       </c>
@@ -7180,7 +7187,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="67.5">
+    <row r="80" spans="1:16" ht="67.5" hidden="1">
       <c r="A80" s="106">
         <v>78</v>
       </c>
@@ -7248,7 +7255,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="27">
+    <row r="82" spans="1:16" ht="27" hidden="1">
       <c r="A82" s="106">
         <v>80</v>
       </c>
@@ -7351,6 +7358,18 @@
       <c r="H84" s="154" t="s">
         <v>54</v>
       </c>
+      <c r="L84" s="128" t="s">
+        <v>314</v>
+      </c>
+      <c r="N84" s="129" t="s">
+        <v>315</v>
+      </c>
+      <c r="O84" s="150">
+        <v>42754</v>
+      </c>
+      <c r="P84" s="128" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="85" spans="1:16" ht="40.5">
       <c r="A85" s="106">
@@ -7375,7 +7394,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="86" spans="1:16" ht="54">
+    <row r="86" spans="1:16" ht="54" hidden="1">
       <c r="A86" s="106">
         <v>84</v>
       </c>
@@ -7413,7 +7432,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="27">
+    <row r="87" spans="1:16" ht="27" hidden="1">
       <c r="A87" s="106">
         <v>85</v>
       </c>
@@ -7448,7 +7467,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="40.5">
+    <row r="88" spans="1:16" ht="40.5" hidden="1">
       <c r="A88" s="106">
         <v>86</v>
       </c>
@@ -7486,7 +7505,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="40.5">
+    <row r="89" spans="1:16" ht="40.5" hidden="1">
       <c r="A89" s="106">
         <v>87</v>
       </c>
@@ -7519,7 +7538,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="27">
+    <row r="90" spans="1:16" ht="27" hidden="1">
       <c r="A90" s="106">
         <v>88</v>
       </c>
@@ -7552,7 +7571,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="91" spans="1:16">
+    <row r="91" spans="1:16" hidden="1">
       <c r="A91" s="106">
         <v>89</v>
       </c>
@@ -7595,17 +7614,19 @@
         <filter val="返回，优化"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="11"/>
+    <filterColumn colId="11">
+      <filters blank="1"/>
+    </filterColumn>
     <filterColumn colId="15"/>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I1:I73 I75:I1048576">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="否">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="否">
       <formula>NOT(ISERROR(SEARCH("否",L1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/测试单-电子书_daisy_170108.xlsx
+++ b/测试单-电子书_daisy_170108.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="319">
   <si>
     <t>编号</t>
   </si>
@@ -2033,6 +2033,14 @@
   </si>
   <si>
     <t>j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路径记忆到diasy文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3981,7 +3989,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P84" sqref="P84"/>
+      <selection pane="bottomRight" activeCell="N66" sqref="N66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6341,10 +6349,16 @@
       </c>
       <c r="I58" s="154"/>
       <c r="K58" s="170"/>
-      <c r="L58" s="154"/>
+      <c r="L58" s="154" t="s">
+        <v>317</v>
+      </c>
       <c r="M58" s="171"/>
-      <c r="N58" s="158"/>
-      <c r="O58" s="172"/>
+      <c r="N58" s="158" t="s">
+        <v>318</v>
+      </c>
+      <c r="O58" s="172">
+        <v>42754</v>
+      </c>
       <c r="P58" s="129" t="s">
         <v>145</v>
       </c>

--- a/测试单-电子书_daisy_170108.xlsx
+++ b/测试单-电子书_daisy_170108.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="321">
   <si>
     <t>编号</t>
   </si>
@@ -2041,6 +2041,14 @@
   </si>
   <si>
     <t>路径记忆到diasy文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加更新方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3986,10 +3994,10 @@
   <dimension ref="A1:S91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N66" sqref="N66"/>
+      <selection pane="bottomRight" activeCell="O85" sqref="O85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7406,6 +7414,15 @@
       </c>
       <c r="G85" s="130" t="s">
         <v>243</v>
+      </c>
+      <c r="L85" s="128" t="s">
+        <v>319</v>
+      </c>
+      <c r="N85" s="129" t="s">
+        <v>320</v>
+      </c>
+      <c r="O85" s="150">
+        <v>42754</v>
       </c>
     </row>
     <row r="86" spans="1:16" ht="54" hidden="1">

--- a/测试单-电子书_daisy_170108.xlsx
+++ b/测试单-电子书_daisy_170108.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="321">
   <si>
     <t>编号</t>
   </si>
@@ -3294,7 +3294,12 @@
     <cellStyle name="常规 3 9" xfId="37"/>
     <cellStyle name="常规 6" xfId="6"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -3997,7 +4002,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O85" sqref="O85"/>
+      <selection pane="bottomRight" activeCell="O66" sqref="O66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6047,7 +6052,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="94.5" hidden="1">
+    <row r="51" spans="1:16" ht="94.5">
       <c r="A51" s="106">
         <v>49</v>
       </c>
@@ -6087,7 +6092,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="27" hidden="1">
+    <row r="52" spans="1:16" ht="27">
       <c r="A52" s="106">
         <v>50</v>
       </c>
@@ -6252,7 +6257,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="54" hidden="1">
+    <row r="56" spans="1:16" ht="54">
       <c r="A56" s="106">
         <v>54</v>
       </c>
@@ -6292,7 +6297,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="40.5" hidden="1">
+    <row r="57" spans="1:16" ht="40.5">
       <c r="A57" s="106">
         <v>55</v>
       </c>
@@ -6686,10 +6691,14 @@
       <c r="H66" s="154" t="s">
         <v>41</v>
       </c>
-      <c r="L66" s="132"/>
+      <c r="L66" s="154" t="s">
+        <v>297</v>
+      </c>
       <c r="M66" s="132"/>
       <c r="N66" s="132"/>
-      <c r="O66" s="150"/>
+      <c r="O66" s="172">
+        <v>42754</v>
+      </c>
       <c r="P66" s="128" t="s">
         <v>144</v>
       </c>
@@ -6859,7 +6868,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="121.5" hidden="1">
+    <row r="71" spans="1:16" ht="121.5">
       <c r="A71" s="106">
         <v>69</v>
       </c>
@@ -6896,7 +6905,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="121.5" hidden="1">
+    <row r="72" spans="1:16" ht="121.5">
       <c r="A72" s="106">
         <v>70</v>
       </c>
@@ -6972,7 +6981,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="74" spans="1:16" ht="67.5" hidden="1">
+    <row r="74" spans="1:16" ht="67.5">
       <c r="A74" s="106">
         <v>72</v>
       </c>
@@ -7050,7 +7059,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="81" hidden="1">
+    <row r="76" spans="1:16" ht="81">
       <c r="A76" s="106">
         <v>74</v>
       </c>
@@ -7171,7 +7180,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="67.5" hidden="1">
+    <row r="79" spans="1:16" ht="67.5">
       <c r="A79" s="106">
         <v>77</v>
       </c>
@@ -7209,7 +7218,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="67.5" hidden="1">
+    <row r="80" spans="1:16" ht="67.5">
       <c r="A80" s="106">
         <v>78</v>
       </c>
@@ -7277,7 +7286,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="27" hidden="1">
+    <row r="82" spans="1:16" ht="27">
       <c r="A82" s="106">
         <v>80</v>
       </c>
@@ -7425,7 +7434,7 @@
         <v>42754</v>
       </c>
     </row>
-    <row r="86" spans="1:16" ht="54" hidden="1">
+    <row r="86" spans="1:16" ht="54">
       <c r="A86" s="106">
         <v>84</v>
       </c>
@@ -7463,7 +7472,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="27" hidden="1">
+    <row r="87" spans="1:16" ht="27">
       <c r="A87" s="106">
         <v>85</v>
       </c>
@@ -7498,7 +7507,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="40.5" hidden="1">
+    <row r="88" spans="1:16" ht="40.5">
       <c r="A88" s="106">
         <v>86</v>
       </c>
@@ -7536,7 +7545,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="40.5" hidden="1">
+    <row r="89" spans="1:16" ht="40.5">
       <c r="A89" s="106">
         <v>87</v>
       </c>
@@ -7569,7 +7578,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="27" hidden="1">
+    <row r="90" spans="1:16" ht="27">
       <c r="A90" s="106">
         <v>88</v>
       </c>
@@ -7602,7 +7611,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="91" spans="1:16" hidden="1">
+    <row r="91" spans="1:16">
       <c r="A91" s="106">
         <v>89</v>
       </c>
@@ -7645,19 +7654,17 @@
         <filter val="返回，优化"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="11">
-      <filters blank="1"/>
-    </filterColumn>
+    <filterColumn colId="11"/>
     <filterColumn colId="15"/>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I1:I73 I75:I1048576">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="否">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="否">
       <formula>NOT(ISERROR(SEARCH("否",L1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/测试单-电子书_daisy_170108.xlsx
+++ b/测试单-电子书_daisy_170108.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="324">
   <si>
     <t>编号</t>
   </si>
@@ -2049,6 +2049,18 @@
   </si>
   <si>
     <t>添加更新方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在程序设计的时候不知道还有这种没有音频的情况，所以程序设计时都是按照播放音频去设计的，现在要改成音频播放和TTS播放融合在一起，这个很难。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我这边没有复现，等下次去你那边的时候我看一下。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4002,7 +4014,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O66" sqref="O66"/>
+      <selection pane="bottomRight" activeCell="N110" sqref="N110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4655,10 +4667,16 @@
       </c>
       <c r="I16" s="183"/>
       <c r="K16" s="150"/>
-      <c r="L16" s="160"/>
+      <c r="L16" s="144" t="s">
+        <v>83</v>
+      </c>
       <c r="M16" s="160"/>
-      <c r="N16" s="129"/>
-      <c r="O16" s="160"/>
+      <c r="N16" s="129" t="s">
+        <v>321</v>
+      </c>
+      <c r="O16" s="150">
+        <v>42754</v>
+      </c>
       <c r="P16" s="128" t="s">
         <v>301</v>
       </c>
@@ -7278,10 +7296,16 @@
       <c r="G81" s="175" t="s">
         <v>228</v>
       </c>
-      <c r="L81" s="132"/>
+      <c r="L81" s="132" t="s">
+        <v>322</v>
+      </c>
       <c r="M81" s="132"/>
-      <c r="N81" s="132"/>
-      <c r="O81" s="132"/>
+      <c r="N81" s="133" t="s">
+        <v>323</v>
+      </c>
+      <c r="O81" s="151">
+        <v>42754</v>
+      </c>
       <c r="P81" s="128" t="s">
         <v>144</v>
       </c>
@@ -7669,7 +7693,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L86 L18:L49 L60:L61 L51:L57 L74">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L86 L18:L49 L60:L61 L51:L57 L74 L16">
       <formula1>"是否修改,是,否,其他"</formula1>
     </dataValidation>
   </dataValidations>
